--- a/xlsx/country_comparison/climate_policies_positive.xlsx
+++ b/xlsx/country_comparison/climate_policies_positive.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.522388059701492</v>
+        <v>0.514084507042254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.67741935483871</v>
+        <v>0.49171270718232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.689655172413793</v>
+        <v>0.590163934426229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.514705882352941</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.441860465116279</v>
+        <v>0.411563332065424</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.492537313432836</v>
+        <v>0.542253521126761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.645161290322581</v>
+        <v>0.646408839779006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.758620689655172</v>
+        <v>0.655737704918033</v>
       </c>
       <c r="E3" t="n">
-        <v>0.573529411764706</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.593023255813954</v>
+        <v>0.529859262076835</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.522388059701492</v>
+        <v>0.528169014084507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.483870967741935</v>
+        <v>0.569060773480663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.586206896551724</v>
+        <v>0.565573770491803</v>
       </c>
       <c r="E4" t="n">
-        <v>0.441176470588235</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.465116279069767</v>
+        <v>0.445036135412704</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_positive.xlsx
+++ b/xlsx/country_comparison/climate_policies_positive.xlsx
@@ -395,19 +395,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.514084507042254</v>
+        <v>0.508064516129032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.49171270718232</v>
+        <v>0.513870541611625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.590163934426229</v>
+        <v>0.642725598526704</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41304347826087</v>
+        <v>0.498447204968944</v>
       </c>
       <c r="F2" t="n">
-        <v>0.411563332065424</v>
+        <v>0.410896708286039</v>
       </c>
     </row>
     <row r="3">
@@ -415,19 +415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.542253521126761</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.646408839779006</v>
+        <v>0.652575957727873</v>
       </c>
       <c r="D3" t="n">
-        <v>0.655737704918033</v>
+        <v>0.692449355432781</v>
       </c>
       <c r="E3" t="n">
-        <v>0.478260869565217</v>
+        <v>0.647515527950311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.529859262076835</v>
+        <v>0.52894438138479</v>
       </c>
     </row>
     <row r="4">
@@ -435,19 +435,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.528169014084507</v>
+        <v>0.541935483870968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.569060773480663</v>
+        <v>0.597093791281374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.565573770491803</v>
+        <v>0.622467771639042</v>
       </c>
       <c r="E4" t="n">
-        <v>0.41304347826087</v>
+        <v>0.545031055900621</v>
       </c>
       <c r="F4" t="n">
-        <v>0.445036135412704</v>
+        <v>0.445327279606508</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_positive.xlsx
+++ b/xlsx/country_comparison/climate_policies_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
@@ -389,65 +392,77 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.508064516129032</v>
+        <v>0.402771008743824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.513870541611625</v>
+        <v>0.526655676616393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.642725598526704</v>
+        <v>0.518253406992272</v>
       </c>
       <c r="E2" t="n">
-        <v>0.498447204968944</v>
+        <v>0.514925574114415</v>
       </c>
       <c r="F2" t="n">
-        <v>0.410896708286039</v>
+        <v>0.618868191878849</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.52004396471253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.520899657426139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.652575957727873</v>
+        <v>0.641404129052997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.692449355432781</v>
+        <v>0.622832411177658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.647515527950311</v>
+        <v>0.645122272457726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.52894438138479</v>
+        <v>0.69674075284452</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.635507125525964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.541935483870968</v>
+        <v>0.437401671299102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.597093791281374</v>
+        <v>0.577421178741801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.622467771639042</v>
+        <v>0.566742781847626</v>
       </c>
       <c r="E4" t="n">
-        <v>0.545031055900621</v>
+        <v>0.598913540831578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.445327279606508</v>
+        <v>0.613758646343564</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.555669227465416</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_positive.xlsx
+++ b/xlsx/country_comparison/climate_policies_positive.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.402771008743824</v>
+        <v>0.409060764527737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.526655676616393</v>
+        <v>0.535201948047178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.518253406992272</v>
+        <v>0.522159530315475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.514925574114415</v>
+        <v>0.528762735872641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.618868191878849</v>
+        <v>0.617643301268689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.52004396471253</v>
+        <v>0.510176392524896</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.520899657426139</v>
+        <v>0.530786230623006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.641404129052997</v>
+        <v>0.646986940154306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.622832411177658</v>
+        <v>0.617674491099532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.645122272457726</v>
+        <v>0.661975627869348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.69674075284452</v>
+        <v>0.703166680556518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.635507125525964</v>
+        <v>0.62419401179039</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.437401671299102</v>
+        <v>0.450078889275541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.577421178741801</v>
+        <v>0.578816210447086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.566742781847626</v>
+        <v>0.554897120617185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.598913540831578</v>
+        <v>0.597865813650494</v>
       </c>
       <c r="F4" t="n">
-        <v>0.613758646343564</v>
+        <v>0.619412843914247</v>
       </c>
       <c r="G4" t="n">
-        <v>0.555669227465416</v>
+        <v>0.540918245199244</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/climate_policies_positive.xlsx
+++ b/xlsx/country_comparison/climate_policies_positive.xlsx
@@ -35,13 +35,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
   </si>
 </sst>
 </file>
@@ -401,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.409060764527737</v>
+        <v>0.409115351906478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.535201948047178</v>
+        <v>0.535873014459192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.522159530315475</v>
+        <v>0.522108726136302</v>
       </c>
       <c r="E2" t="n">
-        <v>0.528762735872641</v>
+        <v>0.528761543405907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.617643301268689</v>
+        <v>0.619349694288149</v>
       </c>
       <c r="G2" t="n">
-        <v>0.510176392524896</v>
+        <v>0.510164860189199</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.530786230623006</v>
+        <v>0.530814200731826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.646986940154306</v>
+        <v>0.646086050975591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.617674491099532</v>
+        <v>0.617631776703308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.661975627869348</v>
+        <v>0.661981009518735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.703166680556518</v>
+        <v>0.679241918379181</v>
       </c>
       <c r="G3" t="n">
-        <v>0.62419401179039</v>
+        <v>0.624160044931323</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.450078889275541</v>
+        <v>0.45011341124838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.578816210447086</v>
+        <v>0.580303842050924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.554897120617185</v>
+        <v>0.554844714670846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.597865813650494</v>
+        <v>0.597860385545241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.619412843914247</v>
+        <v>0.624386789670735</v>
       </c>
       <c r="G4" t="n">
-        <v>0.540918245199244</v>
+        <v>0.54091224731223</v>
       </c>
     </row>
   </sheetData>
